--- a/biology/Zoologie/Adorybiotus_granulatus/Adorybiotus_granulatus.xlsx
+++ b/biology/Zoologie/Adorybiotus_granulatus/Adorybiotus_granulatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adorybiotus granulatus, unique représentant du genre Adorybiotus, est une espèce de tardigrades de la famille des Richtersiidae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en Norvège, aux îles Féroé, au Groenland, au Canada, en Alaska, en Russie et au Japon.
 </t>
@@ -542,7 +556,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Maucci &amp; Ramazzotti, 1981 : Adorybiotus gen. nov.: nuova posizione sistematica per Macrobiotus granulatus Richters, 1903 e per Macrobiotus coronifer Richters, 1903 (Tardigrada, Macrobiotidae). Memorie dell'Istituto Italiano di Idrobiologia Dott Marco de Marchi, vol. 39, p. 153-159.
 Richters, 1903 : Nordische Tardigraden Zoologische Anzeiger, vol. 27, p. 168-172 (texte intégral).</t>
